--- a/resource/Questionare on Regression testing.xlsx
+++ b/resource/Questionare on Regression testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t xml:space="preserve">S.No</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
-    <t xml:space="preserve">Shared By</t>
+    <t xml:space="preserve">SharedBy</t>
   </si>
   <si>
     <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Regression Testing</t>
@@ -487,15 +490,15 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="79.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="67.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="14.43"/>
   </cols>
   <sheetData>
@@ -518,7 +521,9 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -545,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
@@ -584,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -623,16 +628,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -662,16 +667,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
@@ -701,16 +706,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
@@ -740,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
@@ -779,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
@@ -818,16 +823,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -857,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -896,16 +901,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -935,16 +940,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
@@ -974,16 +979,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -1013,16 +1018,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1052,16 +1057,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -1091,16 +1096,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -1130,16 +1135,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
@@ -1169,16 +1174,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
@@ -1208,16 +1213,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -1247,16 +1252,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -1286,16 +1291,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>

--- a/resource/Questionare on Regression testing.xlsx
+++ b/resource/Questionare on Regression testing.xlsx
@@ -4,7 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="LogError" sheetId="2" r:id="rId2"/>
+    <sheet name="StatusSheet77618" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -400,9 +400,6 @@
       </c>
       <c r="F1" t="str">
         <v>Level</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Status</v>
       </c>
     </row>
     <row r="2">
@@ -779,7 +776,7 @@
   </hyperlinks>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA1048576"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
   </ignoredErrors>
 </worksheet>
 </file>
